--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605798.3188213266</v>
+        <v>598308.7820235867</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889767</v>
+        <v>335690.3293889771</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736053</v>
+        <v>8341311.708736051</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>131.8562746194806</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -899,67 +899,67 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.53671944836351</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516672</v>
+        <v>144.138852502454</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>231.8635835046283</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.82802771793148</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>128.0010754625421</v>
       </c>
       <c r="U9" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>69.40990664858384</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>98.63122914173753</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>10.11197856605463</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755627</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.304756115063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.7659939883863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903365</v>
+        <v>54.47555601903387</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.482679290023347</v>
       </c>
       <c r="S17" t="n">
-        <v>17.95704256613791</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>9.461970681989259</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.5808806410308</v>
+        <v>170.1535758355531</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.41204342723539</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>110.0115294480436</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.835869756679</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.99240337009267</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.32232414915258</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>68.19029374363566</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>339.0399185806818</v>
+        <v>219.3567277916628</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>59.66385641544548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>317.0837352438118</v>
+        <v>290.5286403308939</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,31 +3184,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>36.78424627109305</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>82.84223401872967</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>48.28463004918702</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>130.4283615399079</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>128.801431250095</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>300.5735285809518</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3834,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.693200015577403</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>18.71042305649437</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>355.5718542987857</v>
       </c>
       <c r="C44" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D2" t="n">
         <v>31.35113235729607</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.4692992915062</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4443,16 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X3" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.4692992915062</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579.5027691685495</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C6" t="n">
-        <v>405.0497398874226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X6" t="n">
-        <v>619.4388494194218</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.4388494194218</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117568</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613337</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613337</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
         <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806669</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="V8" t="n">
-        <v>818.7624959030037</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="W8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="X8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="Y8" t="n">
-        <v>552.8614515073803</v>
+        <v>907.4554057415462</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.7401876451189</v>
+        <v>354.7498470027159</v>
       </c>
       <c r="C9" t="n">
-        <v>159.7401876451189</v>
+        <v>180.2968177215889</v>
       </c>
       <c r="D9" t="n">
-        <v>159.7401876451189</v>
+        <v>180.2968177215889</v>
       </c>
       <c r="E9" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683224</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399126</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347753</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="M9" t="n">
-        <v>524.9036321565297</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565297</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O9" t="n">
-        <v>785.316696249022</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271207</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>997.5862896269399</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>825.0976822195809</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T9" t="n">
-        <v>623.1126246346568</v>
+        <v>751.1855127805791</v>
       </c>
       <c r="U9" t="n">
-        <v>394.8922958768616</v>
+        <v>522.9651840227839</v>
       </c>
       <c r="V9" t="n">
-        <v>159.7401876451189</v>
+        <v>522.9651840227839</v>
       </c>
       <c r="W9" t="n">
-        <v>159.7401876451189</v>
+        <v>522.9651840227839</v>
       </c>
       <c r="X9" t="n">
-        <v>159.7401876451189</v>
+        <v>522.9651840227839</v>
       </c>
       <c r="Y9" t="n">
-        <v>159.7401876451189</v>
+        <v>522.9651840227839</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>153.5704860039377</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2686.93497125453</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2433.173185892622</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2102.110298549051</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5157,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064341</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2323.103882821189</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C14" t="n">
-        <v>1954.141365880777</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274026</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861747</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
         <v>381.1377017843616</v>
@@ -5276,16 +5276,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533133</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733118</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N14" t="n">
         <v>1836.345445977174</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2487.284450625913</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2233.522665264004</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2233.522665264004</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5382,22 +5382,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5443,28 +5443,28 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036444</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2107.607341885688</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2687.570627088905</v>
       </c>
       <c r="S17" t="n">
-        <v>2679.010664183739</v>
+        <v>2687.570627088905</v>
       </c>
       <c r="T17" t="n">
-        <v>2460.375997155802</v>
+        <v>2468.935960060968</v>
       </c>
       <c r="U17" t="n">
-        <v>2460.375997155802</v>
+        <v>2215.17417469906</v>
       </c>
       <c r="V17" t="n">
-        <v>2460.375997155802</v>
+        <v>1884.111287355489</v>
       </c>
       <c r="W17" t="n">
-        <v>2107.607341885688</v>
+        <v>1531.342632085375</v>
       </c>
       <c r="X17" t="n">
-        <v>2107.607341885688</v>
+        <v>1157.876873824295</v>
       </c>
       <c r="Y17" t="n">
-        <v>2107.607341885688</v>
+        <v>767.7375418484834</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036444</v>
@@ -5604,13 +5604,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5619,22 +5619,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5695,19 +5695,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>63.50052796378793</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V19" t="n">
-        <v>63.50052796378793</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036444</v>
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.9054987607761</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C20" t="n">
-        <v>53.94298182036444</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036444</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533135</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5780,22 +5780,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2510.703757037383</v>
+        <v>2525.276792194431</v>
       </c>
       <c r="U20" t="n">
-        <v>2256.941971675474</v>
+        <v>2271.515006832523</v>
       </c>
       <c r="V20" t="n">
-        <v>1925.879084331904</v>
+        <v>1940.452119488952</v>
       </c>
       <c r="W20" t="n">
-        <v>1573.11042906179</v>
+        <v>1940.452119488952</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.64467080071</v>
+        <v>1940.452119488952</v>
       </c>
       <c r="Y20" t="n">
-        <v>809.505338824898</v>
+        <v>1940.452119488952</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5826,46 +5826,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.6519168570173</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C22" t="n">
-        <v>252.6519168570173</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D22" t="n">
-        <v>252.6519168570173</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E22" t="n">
-        <v>252.6519168570173</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>2586.026333999996</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>2296.609163963036</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005474</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.6519168570173</v>
+        <v>2068.619613065019</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="D23" t="n">
-        <v>819.715945170047</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="E23" t="n">
-        <v>433.9276925718028</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>298.2216381402422</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036425</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036425</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6072,19 +6072,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6105,10 +6105,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37975290126613</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C25" t="n">
-        <v>98.37975290126613</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D25" t="n">
-        <v>98.37975290126613</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>98.37975290126613</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6175,22 +6175,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X25" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.0282177315058</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.356583321972</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="Y26" t="n">
-        <v>2382.509002921313</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,25 +6303,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6330,16 +6330,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2260.841973483351</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2091.842173221684</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378793</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1920.409918978289</v>
+        <v>644.477951075587</v>
       </c>
       <c r="C29" t="n">
-        <v>1551.447402037878</v>
+        <v>275.5154341351753</v>
       </c>
       <c r="D29" t="n">
-        <v>1193.181703431127</v>
+        <v>275.5154341351753</v>
       </c>
       <c r="E29" t="n">
-        <v>807.393450832883</v>
+        <v>275.5154341351753</v>
       </c>
       <c r="F29" t="n">
-        <v>396.4075460432754</v>
+        <v>275.5154341351753</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018223</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.009759042411</v>
+        <v>1031.077791139709</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C31" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F32" t="n">
-        <v>792.1933911785532</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G32" t="n">
-        <v>374.22958307674</v>
+        <v>347.4062548818736</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6740,10 +6740,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6783,10 +6783,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6801,19 +6801,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018222</v>
+        <v>2196.44780384774</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036444</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1557.098781941583</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1166.959449965771</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7053,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.717708340416</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C38" t="n">
-        <v>1257.755191400004</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D38" t="n">
-        <v>899.4894927932537</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E38" t="n">
-        <v>513.7012401950094</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F38" t="n">
-        <v>102.7153354054018</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7175,16 +7175,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>2013.317548404538</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>2013.317548404538</v>
+        <v>2291.739914783498</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7278,16 +7278,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.714009270569</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>2204.611553462393</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V40" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.944160717209</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>357.5526066496087</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7482,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761945</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="C43" t="n">
-        <v>546.4805193761945</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="D43" t="n">
-        <v>546.4805193761945</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="E43" t="n">
-        <v>546.4805193761945</v>
+        <v>2032.754199758999</v>
       </c>
       <c r="F43" t="n">
-        <v>399.5905718782841</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>230.5907716166165</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>72.84239904914665</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7649,16 +7649,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
@@ -7728,40 +7728,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>256.9443198746416</v>
+        <v>129.591740357718</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291451</v>
+        <v>249.750159675057</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747027</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,7 +9480,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>154.3469453318534</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,16 +22589,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>40.85222436883518</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22641,7 +22641,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>7.497060989136827</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22683,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22787,13 +22787,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9964642015038</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>76.18381746918988</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900443</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521642</v>
+        <v>271.0713689013774</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
@@ -23078,10 +23078,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>95.8886749655066</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>42.25643430910603</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>71.96413154653271</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23197,13 +23197,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>84.79256385362689</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
         <v>227.7682732010226</v>
@@ -23239,7 +23239,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>53.30008710312372</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.3363417916032</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890129</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.42908554841756</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>8.682326369271493</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>44.99572328478838</v>
       </c>
       <c r="S17" t="n">
-        <v>156.4586702428336</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,22 +23935,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>277.0610276546017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24020,7 +24020,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>31.86743971662696</v>
+        <v>46.29474452210474</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.0090045956959</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>142.1261138757844</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>171.948300264116</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.3173988889582</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,13 +24415,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>14.15607842565915</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24500,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24610,19 +24610,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>87.98059509815948</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,25 +24643,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>242.6756726418388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,16 +24683,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>74.74425144011315</v>
+        <v>194.4274422291322</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24917,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.839037520545389</v>
+        <v>33.3941324334632</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,31 +25072,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>109.6497163754761</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>286.8888666597394</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>365.499539971608</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>255.8095771161457</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,16 +25594,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>96.23367420798931</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>106.3025171607596</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>135.7278480073538</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>116.2551987358438</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25837,10 +25837,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.16198736469488</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,16 +26077,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9453835684545</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.189883456</v>
+        <v>492874.1898834557</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.0546829647</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972483</v>
+        <v>147339.1279972482</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26344,10 +26344,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266359</v>
+        <v>26613.58757266329</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835737</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525759</v>
+        <v>5625.642228525715</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="C4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>32856.99051041313</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="E4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="G4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26494,7 +26494,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20602.90746701039</v>
+        <v>-21463.97542793455</v>
       </c>
       <c r="C6" t="n">
-        <v>60166.52406453739</v>
+        <v>59305.45610361317</v>
       </c>
       <c r="D6" t="n">
-        <v>37734.14250733816</v>
+        <v>36871.72451806851</v>
       </c>
       <c r="E6" t="n">
-        <v>-246205.4182710413</v>
+        <v>-247116.9438738567</v>
       </c>
       <c r="F6" t="n">
-        <v>161515.0194125324</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="G6" t="n">
-        <v>161515.0194125324</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="H6" t="n">
-        <v>161515.0194125324</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="I6" t="n">
-        <v>161515.0194125325</v>
+        <v>160603.4938097175</v>
       </c>
       <c r="J6" t="n">
-        <v>98455.07681342626</v>
+        <v>97543.55121061137</v>
       </c>
       <c r="K6" t="n">
-        <v>161515.0194125325</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="L6" t="n">
-        <v>155889.3771840067</v>
+        <v>154977.8515811919</v>
       </c>
       <c r="M6" t="n">
-        <v>59080.90172189745</v>
+        <v>58169.37611908249</v>
       </c>
       <c r="N6" t="n">
-        <v>161515.0194125323</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="O6" t="n">
-        <v>161515.0194125324</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="P6" t="n">
-        <v>161515.0194125325</v>
+        <v>160603.4938097176</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26793,10 +26793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545555</v>
@@ -26805,22 +26805,22 @@
         <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302967</v>
+        <v>354.7302815302971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028883</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.227745074008</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028882</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028883</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.61704058897</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>127.3525795169237</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.2826983459118</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031301</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903826</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181302</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,7 +36923,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,7 +37397,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -38023,7 +38023,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
